--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 3/Báo cáo công việc T3 - Tuấn.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 3/Báo cáo công việc T3 - Tuấn.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -479,6 +479,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,9 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,7 +808,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="B3" sqref="B3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,16 +824,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -866,13 +866,9 @@
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="B3" s="18"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="14">
-        <v>700</v>
-      </c>
+      <c r="D3" s="14"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -880,67 +876,51 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="B4" s="18"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>300</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="A5" s="27"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>250</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="18" t="s">
-        <v>27</v>
-      </c>
+      <c r="A6" s="28"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>150</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>100</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="18"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -955,7 +935,7 @@
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="36"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -967,7 +947,7 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -979,23 +959,23 @@
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1096,16 +1076,16 @@
       <c r="H21" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1206,16 +1186,16 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1273,7 +1253,7 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="36"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1285,7 +1265,7 @@
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="36"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1297,7 +1277,7 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1309,23 +1289,23 @@
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="36"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1464,22 +1444,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1583,45 +1563,45 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>7</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
